--- a/measures/5 hand-scoring of awareness criteria/to labs/coding-Gast, Richter, & Benedict/data_awareness_for_hand_scoring_coder1.xlsx
+++ b/measures/5 hand-scoring of awareness criteria/to labs/coding-Gast, Richter, & Benedict/data_awareness_for_hand_scoring_coder1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="371">
   <si>
     <t>unique_id</t>
   </si>
@@ -1147,12 +1147,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1167,8 +1179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,13 +1465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1623,7 +1638,7 @@
       <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D7" t="s">
@@ -1649,7 +1664,7 @@
       <c r="B8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D8" t="s">
@@ -1675,10 +1690,10 @@
       <c r="B9" t="s">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E9" t="s">
@@ -1759,9 +1774,6 @@
       <c r="D12" t="s">
         <v>260</v>
       </c>
-      <c r="E12" t="s">
-        <v>370</v>
-      </c>
       <c r="F12" t="s">
         <v>370</v>
       </c>
@@ -1909,10 +1921,10 @@
       <c r="B18" t="s">
         <v>128</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E18" t="s">
@@ -1964,7 +1976,7 @@
       <c r="C20" t="s">
         <v>148</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>268</v>
       </c>
       <c r="E20" t="s">
@@ -2039,7 +2051,7 @@
       <c r="B23" t="s">
         <v>128</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D23" t="s">
@@ -2094,7 +2106,7 @@
       <c r="C25" t="s">
         <v>153</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E25" t="s">
@@ -2429,7 +2441,7 @@
       <c r="B38" t="s">
         <v>128</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D38" t="s">
@@ -2449,7 +2461,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
